--- a/data/team_names.xlsx
+++ b/data/team_names.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattw\Documents\ff_shiny_app\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattw\Documents\ff_shiny_app\ff_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12AC02D-FB58-4753-AE36-AC2B8F4F9700}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C625B45-9BF9-4240-855C-CA0354A21214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EF31F54B-043B-4B28-8153-23D79D0673AD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
   <si>
     <t>New England Patriots</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t>TB</t>
+  </si>
+  <si>
+    <t>vegas</t>
+  </si>
+  <si>
+    <t>JAC</t>
   </si>
 </sst>
 </file>
@@ -603,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAC5F7E-09C3-475F-A1B9-3DF3FC47BB96}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,7 +621,7 @@
     <col min="2" max="2" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -625,8 +631,11 @@
       <c r="C1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -636,8 +645,11 @@
       <c r="C2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -647,8 +659,11 @@
       <c r="C3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -658,8 +673,11 @@
       <c r="C4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -669,8 +687,11 @@
       <c r="C5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -680,8 +701,11 @@
       <c r="C6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -691,8 +715,11 @@
       <c r="C7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -702,8 +729,11 @@
       <c r="C8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -713,8 +743,11 @@
       <c r="C9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -724,8 +757,11 @@
       <c r="C10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -735,8 +771,11 @@
       <c r="C11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -746,8 +785,11 @@
       <c r="C12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -757,8 +799,11 @@
       <c r="C13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -768,8 +813,11 @@
       <c r="C14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -779,8 +827,11 @@
       <c r="C15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -790,8 +841,11 @@
       <c r="C16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -801,8 +855,11 @@
       <c r="C17" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -812,8 +869,11 @@
       <c r="C18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -823,8 +883,11 @@
       <c r="C19" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -834,8 +897,11 @@
       <c r="C20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -845,8 +911,11 @@
       <c r="C21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -856,8 +925,11 @@
       <c r="C22" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -867,8 +939,11 @@
       <c r="C23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -878,8 +953,11 @@
       <c r="C24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -889,8 +967,11 @@
       <c r="C25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -900,8 +981,11 @@
       <c r="C26" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -911,8 +995,11 @@
       <c r="C27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -922,8 +1009,11 @@
       <c r="C28" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -933,8 +1023,11 @@
       <c r="C29" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -944,8 +1037,11 @@
       <c r="C30" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -955,8 +1051,11 @@
       <c r="C31" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -966,8 +1065,11 @@
       <c r="C32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -975,6 +1077,9 @@
         <v>45</v>
       </c>
       <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
         <v>45</v>
       </c>
     </row>

--- a/data/team_names.xlsx
+++ b/data/team_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattw\Documents\ff_shiny_app\ff_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C625B45-9BF9-4240-855C-CA0354A21214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC67170-1C6D-4373-9385-BEC8808339C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EF31F54B-043B-4B28-8153-23D79D0673AD}"/>
   </bookViews>
@@ -612,7 +612,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,10 +1021,10 @@
         <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1035,10 +1035,10 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">

--- a/data/team_names.xlsx
+++ b/data/team_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattw\Documents\ff_shiny_app\ff_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC67170-1C6D-4373-9385-BEC8808339C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6509DED6-1467-414C-BBF8-39E173009E5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EF31F54B-043B-4B28-8153-23D79D0673AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF31F54B-043B-4B28-8153-23D79D0673AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="106">
   <si>
     <t>New England Patriots</t>
   </si>
@@ -257,7 +257,100 @@
     <t>vegas</t>
   </si>
   <si>
-    <t>JAC</t>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Carolina</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Indianapolis</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Oakland</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Green_Bay</t>
+  </si>
+  <si>
+    <t>New_England</t>
+  </si>
+  <si>
+    <t>New_Orleans</t>
+  </si>
+  <si>
+    <t>NY_Giants</t>
+  </si>
+  <si>
+    <t>NY_Jets</t>
+  </si>
+  <si>
+    <t>San_Francisco</t>
+  </si>
+  <si>
+    <t>Tampa_Bay</t>
+  </si>
+  <si>
+    <t>LA_Chargers</t>
+  </si>
+  <si>
+    <t>LA_Rams</t>
   </si>
 </sst>
 </file>
@@ -281,10 +374,30 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD6DADC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD6DADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD6DADC"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -293,8 +406,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,16 +732,17 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -631,11 +752,11 @@
       <c r="C1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -645,11 +766,11 @@
       <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -659,11 +780,11 @@
       <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -673,11 +794,11 @@
       <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -687,11 +808,11 @@
       <c r="C5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -701,11 +822,11 @@
       <c r="C6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -715,11 +836,11 @@
       <c r="C7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -729,11 +850,11 @@
       <c r="C8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -743,11 +864,11 @@
       <c r="C9" t="s">
         <v>62</v>
       </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -757,11 +878,11 @@
       <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -771,11 +892,11 @@
       <c r="C11" t="s">
         <v>50</v>
       </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -785,11 +906,11 @@
       <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -799,11 +920,11 @@
       <c r="C13" t="s">
         <v>71</v>
       </c>
-      <c r="D13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -813,11 +934,11 @@
       <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -827,11 +948,11 @@
       <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -841,11 +962,11 @@
       <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -855,11 +976,11 @@
       <c r="C17" t="s">
         <v>68</v>
       </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -869,11 +990,11 @@
       <c r="C18" t="s">
         <v>41</v>
       </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -883,11 +1004,11 @@
       <c r="C19" t="s">
         <v>59</v>
       </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -897,11 +1018,11 @@
       <c r="C20" t="s">
         <v>60</v>
       </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -911,11 +1032,11 @@
       <c r="C21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -925,11 +1046,11 @@
       <c r="C22" t="s">
         <v>67</v>
       </c>
-      <c r="D22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -939,11 +1060,11 @@
       <c r="C23" t="s">
         <v>69</v>
       </c>
-      <c r="D23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -953,11 +1074,11 @@
       <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="D24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -967,11 +1088,11 @@
       <c r="C25" t="s">
         <v>54</v>
       </c>
-      <c r="D25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -981,11 +1102,11 @@
       <c r="C26" t="s">
         <v>42</v>
       </c>
-      <c r="D26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -995,11 +1116,11 @@
       <c r="C27" t="s">
         <v>43</v>
       </c>
-      <c r="D27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1009,11 +1130,11 @@
       <c r="C28" t="s">
         <v>61</v>
       </c>
-      <c r="D28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1023,11 +1144,11 @@
       <c r="C29" t="s">
         <v>70</v>
       </c>
-      <c r="D29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1037,11 +1158,11 @@
       <c r="C30" t="s">
         <v>37</v>
       </c>
-      <c r="D30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1051,11 +1172,11 @@
       <c r="C31" t="s">
         <v>72</v>
       </c>
-      <c r="D31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1065,11 +1186,11 @@
       <c r="C32" t="s">
         <v>38</v>
       </c>
-      <c r="D32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1079,12 +1200,12 @@
       <c r="C33" t="s">
         <v>45</v>
       </c>
-      <c r="D33" t="s">
-        <v>45</v>
+      <c r="D33" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C32">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C33">
     <sortCondition ref="C2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/team_names.xlsx
+++ b/data/team_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattw\Documents\ff_shiny_app\ff_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6509DED6-1467-414C-BBF8-39E173009E5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D07F47-2679-4C0A-9895-0603647CA288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF31F54B-043B-4B28-8153-23D79D0673AD}"/>
+    <workbookView xWindow="-25215" yWindow="885" windowWidth="21240" windowHeight="11940" xr2:uid="{EF31F54B-043B-4B28-8153-23D79D0673AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
   <si>
     <t>New England Patriots</t>
   </si>
@@ -351,6 +351,18 @@
   </si>
   <si>
     <t>LA_Rams</t>
+  </si>
+  <si>
+    <t>Las_Vegas</t>
+  </si>
+  <si>
+    <t>Las Vegas Raiders</t>
+  </si>
+  <si>
+    <t>LVE</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -729,20 +741,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAC5F7E-09C3-475F-A1B9-3DF3FC47BB96}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -756,7 +768,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -770,7 +782,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -784,7 +796,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -798,7 +810,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -812,7 +824,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -826,7 +838,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -840,7 +852,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -854,7 +866,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -868,7 +880,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -882,7 +894,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -896,7 +908,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -910,7 +922,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -924,7 +936,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -938,7 +950,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -952,7 +964,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -966,7 +978,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -980,7 +992,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -994,7 +1006,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1008,7 +1020,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1022,7 +1034,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1036,7 +1048,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1050,7 +1062,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1064,7 +1076,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1078,7 +1090,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1092,21 +1104,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1120,7 +1132,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1134,7 +1146,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1148,7 +1160,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1162,7 +1174,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1176,7 +1188,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1190,7 +1202,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1202,6 +1214,20 @@
       </c>
       <c r="D33" s="3" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/team_names.xlsx
+++ b/data/team_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattw\Documents\ff_shiny_app\ff_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D07F47-2679-4C0A-9895-0603647CA288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289DF8E6-3D97-4711-BECB-F6B7CF3DA8AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25215" yWindow="885" windowWidth="21240" windowHeight="11940" xr2:uid="{EF31F54B-043B-4B28-8153-23D79D0673AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EF31F54B-043B-4B28-8153-23D79D0673AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <t>Tampa Bay Buccaneers</t>
   </si>
   <si>
-    <t>Washington Redskins</t>
-  </si>
-  <si>
     <t>Pittsburgh Steelers</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>LAC</t>
   </si>
   <si>
-    <t>OAK</t>
-  </si>
-  <si>
     <t>PHI</t>
   </si>
   <si>
@@ -359,10 +353,16 @@
     <t>Las Vegas Raiders</t>
   </si>
   <si>
-    <t>LVE</t>
-  </si>
-  <si>
     <t>xxx</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>LVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington Football Team	</t>
   </si>
 </sst>
 </file>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAC5F7E-09C3-475F-A1B9-3DF3FC47BB96}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,16 +756,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -773,13 +773,13 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -787,13 +787,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -801,13 +801,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -815,13 +815,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -829,13 +829,13 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -843,13 +843,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -857,27 +857,27 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -885,13 +885,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -899,13 +899,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -913,13 +913,13 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -927,13 +927,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -941,13 +941,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -955,27 +955,27 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -983,13 +983,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -997,13 +997,13 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1011,27 +1011,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1039,13 +1039,13 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1067,27 +1067,27 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1095,13 +1095,13 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1112,10 +1112,10 @@
         <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1123,27 +1123,27 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1151,13 +1151,13 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1165,13 +1165,13 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1179,13 +1179,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1193,41 +1193,41 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
         <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/team_names.xlsx
+++ b/data/team_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattw\Documents\ff_shiny_app\ff_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289DF8E6-3D97-4711-BECB-F6B7CF3DA8AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36D5E62-D56A-4E13-B2CF-DBD1551DBF59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EF31F54B-043B-4B28-8153-23D79D0673AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{EF31F54B-043B-4B28-8153-23D79D0673AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="119">
   <si>
     <t>New England Patriots</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Buffalo Bills</t>
   </si>
   <si>
-    <t>Oakland Raiders</t>
-  </si>
-  <si>
     <t>New York Jets</t>
   </si>
   <si>
@@ -296,9 +293,6 @@
     <t>Minnesota</t>
   </si>
   <si>
-    <t>Oakland</t>
-  </si>
-  <si>
     <t>Philadelphia</t>
   </si>
   <si>
@@ -353,9 +347,6 @@
     <t>Las Vegas Raiders</t>
   </si>
   <si>
-    <t>xxx</t>
-  </si>
-  <si>
     <t>LV</t>
   </si>
   <si>
@@ -363,6 +354,42 @@
   </si>
   <si>
     <t xml:space="preserve">Washington Football Team	</t>
+  </si>
+  <si>
+    <t>conference</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>nfc</t>
+  </si>
+  <si>
+    <t>afc</t>
+  </si>
+  <si>
+    <t>nfc_west</t>
+  </si>
+  <si>
+    <t>afc_west</t>
+  </si>
+  <si>
+    <t>nfc_south</t>
+  </si>
+  <si>
+    <t>afc_east</t>
+  </si>
+  <si>
+    <t>afc_north</t>
+  </si>
+  <si>
+    <t>nfc_north</t>
+  </si>
+  <si>
+    <t>nfc_east</t>
+  </si>
+  <si>
+    <t>afc_south</t>
   </si>
 </sst>
 </file>
@@ -741,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAC5F7E-09C3-475F-A1B9-3DF3FC47BB96}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,486 +779,671 @@
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="E24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="E29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
         <v>36</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="E32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="E33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C32">
     <sortCondition ref="C2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
